--- a/vpath.xlsx
+++ b/vpath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A1_DEV\00_PERSO\v_shooter_path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E72C58C-6785-4F1E-93F5-04DE338A51F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D3A83A-2668-4BFB-851D-BC450BC0A614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F787402C-FA6C-4DCB-9938-0CE4AD388124}"/>
   </bookViews>
@@ -221,12 +221,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -239,6 +233,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -254,6 +254,526 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FE1F3A-3BB8-C4E3-E1EA-8CFACDE2ABF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="3333750"/>
+          <a:ext cx="2505075" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connecteur droit 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E971BDD6-6AC9-A4EF-058A-FF4B6098844D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="4586288"/>
+          <a:ext cx="2505075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32FDED30-3E19-A4B7-972B-6A8452C790D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="4267200"/>
+          <a:ext cx="971550" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>CREATE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125FC571-B880-8F8E-EF3E-A4EC6C28B167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305675" y="3448050"/>
+          <a:ext cx="438150" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1114424</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E614AD-8EE6-8A9A-F2F0-F2C57914EC53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305674" y="3790950"/>
+          <a:ext cx="447675" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>904874</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>866774</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DC80CB-7209-A2BB-DE66-B8177F4D8A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5333999" y="3476625"/>
+          <a:ext cx="1724025" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ArcadeClassic" panose="00000400000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Number entities on X</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>885824</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DFDDF49-04FA-4CF0-A231-6F04AC89A550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314949" y="3800475"/>
+          <a:ext cx="1724025" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ArcadeClassic" panose="00000400000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Number entities on y</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1123949</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484D9E57-66FB-92DA-569C-065473B7ECBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6010274" y="5029200"/>
+          <a:ext cx="1304925" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>OPEN EXISTNG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0B25D8-4F74-4F39-A99E-9FBF57DD5DAC}">
-  <dimension ref="E8:L18"/>
+  <dimension ref="E2:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,132 +1092,133 @@
     <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="3" t="s">
+    <row r="2" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="H9" s="3" t="s">
+      <c r="F3" s="10"/>
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="K9" s="3" t="s">
+      <c r="I3" s="10"/>
+      <c r="K3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="3"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="5"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E13" s="9"/>
-      <c r="F13" s="5"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="5"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E14" s="9"/>
-      <c r="F14" s="5"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="5"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E15" s="9"/>
-      <c r="F15" s="5"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="5"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E16" s="9"/>
-      <c r="F16" s="5"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="5"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E17" s="9"/>
-      <c r="F17" s="5"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="5"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="10"/>
-      <c r="F18" s="6"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="6"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="6"/>
+    <row r="12" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="4"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R_x000D_&amp;1#&amp;"Arial"&amp;10&amp;K000000 Confidential C</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
